--- a/SamplingSpreadsheet.xlsx
+++ b/SamplingSpreadsheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/CurrituckCroatanCarbon2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{162AA1A4-408C-1D4F-8E73-64D9DDF3FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491DA3CB-66E7-B84B-923A-B7E095D2B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="880" windowWidth="27640" windowHeight="15900" xr2:uid="{5AF00E61-9C7B-D649-8876-9FA9E6E5D723}"/>
+    <workbookView xWindow="780" yWindow="880" windowWidth="27640" windowHeight="15900" activeTab="1" xr2:uid="{5AF00E61-9C7B-D649-8876-9FA9E6E5D723}"/>
   </bookViews>
   <sheets>
     <sheet name="water samples" sheetId="1" r:id="rId1"/>
-    <sheet name="CO2 " sheetId="3" r:id="rId2"/>
-    <sheet name="rt conductivity measurements" sheetId="2" r:id="rId3"/>
+    <sheet name="coordinates" sheetId="4" r:id="rId2"/>
+    <sheet name="CO2 " sheetId="3" r:id="rId3"/>
+    <sheet name="rt conductivity measurements" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -86,6 +87,54 @@
   </si>
   <si>
     <t>Time Stop</t>
+  </si>
+  <si>
+    <t>CSI side</t>
+  </si>
+  <si>
+    <t>CSI pond 1</t>
+  </si>
+  <si>
+    <t>CSI pond 2</t>
+  </si>
+  <si>
+    <t>filtered in the field using D and F filters; syringe method; nutrients</t>
+  </si>
+  <si>
+    <t>filtered in the field using D and F filters; syringe method; DOC</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>CSI side kayak entrance</t>
+  </si>
+  <si>
+    <t>elevation (m)</t>
+  </si>
+  <si>
+    <t>35º52.4656' N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (-)13</t>
+  </si>
+  <si>
+    <t>35º 52.5174' N</t>
+  </si>
+  <si>
+    <t>75º 39.8688' W</t>
+  </si>
+  <si>
+    <t>75º 39.9188' W</t>
+  </si>
+  <si>
+    <t>35º 52.5286' N</t>
+  </si>
+  <si>
+    <t>75º 39.8495' W</t>
   </si>
 </sst>
 </file>
@@ -542,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA481F2-9A16-4643-AF7E-741D88434103}">
   <dimension ref="A4:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,40 +698,106 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+      <c r="A9" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44818</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="2"/>
+      <c r="A10" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.4916666666666667</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>44818</v>
+      </c>
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1">
+        <v>44818</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44818</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44818</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="2"/>
+      <c r="A14" s="1">
+        <v>44818</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44818</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
@@ -906,11 +1021,187 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957315FD-42F1-1145-BBC1-137AF4E46582}">
+  <dimension ref="A3:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE82E05-A855-3543-B3B7-DC6F5FFE3FF3}">
   <dimension ref="A3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1008,24 +1299,48 @@
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44818</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.48541666666666666</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.49513888888888885</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44818</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44818</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.51250000000000007</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.5229166666666667</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1194,7 +1509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6513E5B-9F8B-A049-AF34-15D53604EC50}">
   <dimension ref="A2:E42"/>
   <sheetViews>

--- a/SamplingSpreadsheet.xlsx
+++ b/SamplingSpreadsheet.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/CurrituckCroatanCarbon2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{491DA3CB-66E7-B84B-923A-B7E095D2B730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E63199-C0AC-2047-B7BB-F0EE41B51B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="880" windowWidth="27640" windowHeight="15900" activeTab="1" xr2:uid="{5AF00E61-9C7B-D649-8876-9FA9E6E5D723}"/>
+    <workbookView xWindow="780" yWindow="880" windowWidth="27640" windowHeight="15900" activeTab="3" xr2:uid="{5AF00E61-9C7B-D649-8876-9FA9E6E5D723}"/>
   </bookViews>
   <sheets>
     <sheet name="water samples" sheetId="1" r:id="rId1"/>
     <sheet name="coordinates" sheetId="4" r:id="rId2"/>
     <sheet name="CO2 " sheetId="3" r:id="rId3"/>
-    <sheet name="rt conductivity measurements" sheetId="2" r:id="rId4"/>
+    <sheet name="ysi measurements" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
   <si>
     <t>Date</t>
   </si>
@@ -77,12 +77,6 @@
     <t xml:space="preserve">Time </t>
   </si>
   <si>
-    <t xml:space="preserve">Conductivity </t>
-  </si>
-  <si>
-    <t>Temp</t>
-  </si>
-  <si>
     <t>Time Start</t>
   </si>
   <si>
@@ -135,13 +129,70 @@
   </si>
   <si>
     <t>75º 39.8495' W</t>
+  </si>
+  <si>
+    <t>Well 3</t>
+  </si>
+  <si>
+    <t>Surface 3</t>
+  </si>
+  <si>
+    <t>filtered in field with D filter, needs to be F filtered and frozen</t>
+  </si>
+  <si>
+    <t>CSI canal</t>
+  </si>
+  <si>
+    <t>35.873745 N</t>
+  </si>
+  <si>
+    <t>75.6638755 W</t>
+  </si>
+  <si>
+    <t>Surface  1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSI side </t>
+  </si>
+  <si>
+    <t>Sruface 2</t>
+  </si>
+  <si>
+    <t>mmHg</t>
+  </si>
+  <si>
+    <t>% DO</t>
+  </si>
+  <si>
+    <t>spC (us/cm)</t>
+  </si>
+  <si>
+    <t>SAL ppt</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>FNU</t>
+  </si>
+  <si>
+    <t>Chl RFU</t>
+  </si>
+  <si>
+    <t>Chl ug/L</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>Temp (celcius)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,8 +208,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +232,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -275,6 +339,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,8 +659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA481F2-9A16-4643-AF7E-741D88434103}">
   <dimension ref="A4:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -705,13 +773,13 @@
         <v>0.4916666666666667</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1">
         <v>44818</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
@@ -722,13 +790,13 @@
         <v>0.4916666666666667</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
         <v>44818</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
@@ -739,13 +807,13 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
         <v>44818</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -756,13 +824,13 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
         <v>44818</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -773,13 +841,13 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
         <v>44818</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -790,118 +858,283 @@
         <v>0.51388888888888895</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1">
         <v>44818</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="2"/>
+      <c r="A15" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
+      <c r="A16" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44844</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44844</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0.56180555555555556</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44844</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44844</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44844</v>
+      </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44844</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>44846</v>
+      </c>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44846</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>44846</v>
+      </c>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="C25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="13">
+        <v>44846</v>
+      </c>
+      <c r="E25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>44846</v>
+      </c>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
+      <c r="C26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="13">
+        <v>44846</v>
+      </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>44846</v>
+      </c>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
+      <c r="C27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="13">
+        <v>44846</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>44846</v>
+      </c>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
+      <c r="C28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="13">
+        <v>44846</v>
+      </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>44846</v>
+      </c>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
+      <c r="C29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="13">
+        <v>44846</v>
+      </c>
+      <c r="E29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>44846</v>
+      </c>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
+      <c r="C30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13">
+        <v>44846</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>44846</v>
+      </c>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="13">
+        <v>44846</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1024,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957315FD-42F1-1145-BBC1-137AF4E46582}">
   <dimension ref="A3:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1041,38 +1274,38 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
@@ -1080,22 +1313,28 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1201,7 +1440,7 @@
   <dimension ref="A3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>4</v>
@@ -1300,7 +1539,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" s="11">
         <v>44818</v>
@@ -1315,7 +1554,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B10" s="11">
         <v>44818</v>
@@ -1330,7 +1569,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="11">
         <v>44818</v>
@@ -1344,24 +1583,48 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44844</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.41875000000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44844</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.53125</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44844</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1511,10 +1774,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6513E5B-9F8B-A049-AF34-15D53604EC50}">
-  <dimension ref="A2:E42"/>
+  <dimension ref="A2:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1522,7 +1785,7 @@
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
@@ -1533,104 +1796,298 @@
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44844</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.40833333333333338</v>
+      </c>
+      <c r="D3" s="4">
+        <v>16.52</v>
+      </c>
+      <c r="E3" s="4">
+        <v>768.9</v>
+      </c>
+      <c r="F3" s="15">
+        <v>98.4</v>
+      </c>
+      <c r="G3" s="15">
+        <v>10195</v>
+      </c>
+      <c r="H3" s="15">
+        <v>5.78</v>
+      </c>
+      <c r="I3" s="15">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="J3" s="15">
+        <v>5.28</v>
+      </c>
+      <c r="K3" s="15">
+        <v>25.87</v>
+      </c>
+      <c r="L3" s="15">
+        <v>99.68</v>
+      </c>
+      <c r="M3" s="15">
+        <v>0.621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44844</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="D4" s="4">
+        <v>18.762</v>
+      </c>
+      <c r="E4" s="4">
+        <v>768.6</v>
+      </c>
+      <c r="F4" s="15">
+        <v>109.8</v>
+      </c>
+      <c r="G4" s="15">
+        <v>10933</v>
+      </c>
+      <c r="H4" s="15">
+        <v>6.23</v>
+      </c>
+      <c r="I4" s="15">
+        <v>8.19</v>
+      </c>
+      <c r="J4" s="15">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="K4" s="15">
+        <v>27.84</v>
+      </c>
+      <c r="L4" s="15">
+        <v>97.89</v>
+      </c>
+      <c r="M4" s="15">
+        <v>0.22600000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="11">
+        <v>44844</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.57430555555555551</v>
+      </c>
+      <c r="D5" s="4">
+        <v>19.97</v>
+      </c>
+      <c r="E5" s="4">
+        <v>767</v>
+      </c>
+      <c r="F5" s="15">
+        <v>100</v>
+      </c>
+      <c r="G5" s="15">
+        <v>11255</v>
+      </c>
+      <c r="H5" s="15">
+        <v>6.42</v>
+      </c>
+      <c r="I5" s="15">
+        <v>7.7</v>
+      </c>
+      <c r="J5" s="15">
+        <v>4.88</v>
+      </c>
+      <c r="K5" s="15">
+        <v>17.21</v>
+      </c>
+      <c r="L5" s="15">
+        <v>65.069999999999993</v>
+      </c>
+      <c r="M5" s="15">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="11">
+        <v>44846</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.5805555555555556</v>
+      </c>
+      <c r="D6" s="4">
+        <v>21.27</v>
+      </c>
+      <c r="E6" s="4">
+        <v>766.5</v>
+      </c>
+      <c r="F6" s="15">
+        <v>125.4</v>
+      </c>
+      <c r="G6" s="15">
+        <v>25688</v>
+      </c>
+      <c r="H6" s="15">
+        <v>15.71</v>
+      </c>
+      <c r="I6" s="15">
+        <v>8.23</v>
+      </c>
+      <c r="J6" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="K6" s="15">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="L6" s="15">
+        <v>81.39</v>
+      </c>
+      <c r="M6" s="15">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="11">
+        <v>44846</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.59305555555555556</v>
+      </c>
+      <c r="D7" s="4">
+        <v>20.629000000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>766.2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>104</v>
+      </c>
+      <c r="G7" s="15">
+        <v>25460</v>
+      </c>
+      <c r="H7" s="15">
+        <v>15.56</v>
+      </c>
+      <c r="I7" s="15">
+        <v>7.99</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1.24</v>
+      </c>
+      <c r="K7" s="15">
+        <v>15.45</v>
+      </c>
+      <c r="L7" s="15">
+        <v>60.13</v>
+      </c>
+      <c r="M7" s="15">
+        <v>0.20899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>

--- a/SamplingSpreadsheet.xlsx
+++ b/SamplingSpreadsheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/CurrituckCroatanCarbon2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E63199-C0AC-2047-B7BB-F0EE41B51B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5C9761-3166-DE4E-8F8C-607FD04A09C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="880" windowWidth="27640" windowHeight="15900" activeTab="3" xr2:uid="{5AF00E61-9C7B-D649-8876-9FA9E6E5D723}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>CSI side kayak entrance</t>
-  </si>
-  <si>
     <t>elevation (m)</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>75º 39.8495' W</t>
   </si>
   <si>
-    <t>Well 3</t>
-  </si>
-  <si>
     <t>Surface 3</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
     <t xml:space="preserve">CSI side </t>
   </si>
   <si>
-    <t>Sruface 2</t>
-  </si>
-  <si>
     <t>mmHg</t>
   </si>
   <si>
@@ -186,6 +177,27 @@
   </si>
   <si>
     <t>Temp (celcius)</t>
+  </si>
+  <si>
+    <t>PIS Well 1</t>
+  </si>
+  <si>
+    <t>PIS Surface 1</t>
+  </si>
+  <si>
+    <t>PIS Well 2</t>
+  </si>
+  <si>
+    <t>PIS Surface 2</t>
+  </si>
+  <si>
+    <t>PIS Well 3</t>
+  </si>
+  <si>
+    <t>PIS Surface 3</t>
+  </si>
+  <si>
+    <t>filtered in the field using D and F filters; syringe method; nutrients HALF OF SAMPLE IS UNFILTERED</t>
   </si>
 </sst>
 </file>
@@ -326,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -339,10 +351,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,14 +675,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA481F2-9A16-4643-AF7E-741D88434103}">
-  <dimension ref="A4:P50"/>
+  <dimension ref="A4:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="2"/>
   </cols>
@@ -705,7 +724,7 @@
         <v>0.5493055555555556</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="D5" s="1">
         <v>44804</v>
@@ -722,7 +741,7 @@
         <v>0.57777777777777783</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1">
         <v>44804</v>
@@ -739,7 +758,7 @@
         <v>0.68541666666666667</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1">
         <v>44804</v>
@@ -756,7 +775,7 @@
         <v>0.69652777777777775</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1">
         <v>44804</v>
@@ -875,11 +894,13 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="18">
+        <v>44886</v>
+      </c>
+      <c r="E15" t="s">
         <v>31</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.2">
@@ -890,7 +911,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D16" s="1">
         <v>44844</v>
@@ -907,11 +928,13 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="D17" s="18">
+        <v>44886</v>
+      </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -922,7 +945,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1">
         <v>44844</v>
@@ -939,11 +962,13 @@
         <v>0.56180555555555556</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="D19" s="18">
+        <v>44886</v>
+      </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -954,7 +979,7 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D20" s="1">
         <v>44844</v>
@@ -971,7 +996,7 @@
         <v>0.40277777777777773</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1">
         <v>44844</v>
@@ -988,7 +1013,7 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="D22" s="1">
         <v>44844</v>
@@ -1005,7 +1030,7 @@
         <v>0.56944444444444442</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D23" s="1">
         <v>44844</v>
@@ -1018,7 +1043,9 @@
       <c r="A24" s="1">
         <v>44846</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="3">
+        <v>0.5805555555555556</v>
+      </c>
       <c r="C24" s="4" t="s">
         <v>15</v>
       </c>
@@ -1033,11 +1060,13 @@
       <c r="A25" s="1">
         <v>44846</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="3">
+        <v>0.5805555555555556</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>44846</v>
       </c>
       <c r="E25" t="s">
@@ -1048,11 +1077,13 @@
       <c r="A26" s="1">
         <v>44846</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="3">
+        <v>0.59305555555555556</v>
+      </c>
       <c r="C26" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="13">
+        <v>32</v>
+      </c>
+      <c r="D26" s="12">
         <v>44846</v>
       </c>
       <c r="E26" t="s">
@@ -1063,11 +1094,13 @@
       <c r="A27" s="1">
         <v>44846</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="3">
+        <v>0.59305555555555556</v>
+      </c>
       <c r="C27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="13">
+        <v>32</v>
+      </c>
+      <c r="D27" s="12">
         <v>44846</v>
       </c>
       <c r="E27" t="s">
@@ -1078,11 +1111,13 @@
       <c r="A28" s="1">
         <v>44846</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="3">
+        <v>0.6118055555555556</v>
+      </c>
       <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>44846</v>
       </c>
       <c r="E28" t="s">
@@ -1093,11 +1128,13 @@
       <c r="A29" s="1">
         <v>44846</v>
       </c>
-      <c r="B29" s="4"/>
+      <c r="B29" s="3">
+        <v>0.6118055555555556</v>
+      </c>
       <c r="C29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>44846</v>
       </c>
       <c r="E29" t="s">
@@ -1108,11 +1145,13 @@
       <c r="A30" s="1">
         <v>44846</v>
       </c>
-      <c r="B30" s="4"/>
+      <c r="B30" s="3">
+        <v>0.61736111111111114</v>
+      </c>
       <c r="C30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>44846</v>
       </c>
       <c r="E30" t="s">
@@ -1123,11 +1162,13 @@
       <c r="A31" s="1">
         <v>44846</v>
       </c>
-      <c r="B31" s="4"/>
+      <c r="B31" s="3">
+        <v>0.61736111111111114</v>
+      </c>
       <c r="C31" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>44846</v>
       </c>
       <c r="E31" t="s">
@@ -1135,118 +1176,582 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="2"/>
+      <c r="A32" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.46875</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="18">
+        <v>44886</v>
+      </c>
+      <c r="E32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1">
+        <v>44865</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>44865</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="1">
+        <v>44865</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="18">
+        <v>44886</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="12">
+        <v>44865</v>
+      </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B37" s="3">
+        <v>0.54513888888888895</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="12">
+        <v>44865</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B38" s="3">
+        <v>0.65138888888888891</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="18">
+        <v>44886</v>
+      </c>
+      <c r="E38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B39" s="3">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="12">
+        <v>44865</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>44865</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.58124999999999993</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="12">
+        <v>44865</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B41" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1">
+        <v>44869</v>
+      </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D42" s="1">
+        <v>44869</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B43" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="1">
+        <v>44869</v>
+      </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="1">
+        <v>44869</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B45" s="3">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="1">
+        <v>44869</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.62152777777777779</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="1">
+        <v>44869</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B47" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="18">
+        <v>44886</v>
+      </c>
+      <c r="E47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="18">
+        <v>44886</v>
+      </c>
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B51" s="3">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B54" s="14">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B55" s="14">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B56" s="14">
+        <v>0.60763888888888895</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="1">
+        <v>44872</v>
+      </c>
+      <c r="E56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="15">
+        <v>44882</v>
+      </c>
+      <c r="B57" s="14">
+        <v>0.53472222222222221</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="15">
+        <v>44886</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="15">
+        <v>44882</v>
+      </c>
+      <c r="B58" s="14">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="17">
+        <v>44882</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="17">
+        <v>44882</v>
+      </c>
+      <c r="B59" s="14">
+        <v>0.50555555555555554</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="17">
+        <v>44882</v>
+      </c>
+      <c r="E59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="17">
+        <v>44882</v>
+      </c>
+      <c r="B60" s="14">
+        <v>0.57847222222222217</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" s="15">
+        <v>44886</v>
+      </c>
+      <c r="E60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="17">
+        <v>44882</v>
+      </c>
+      <c r="B61" s="14">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D61" s="17">
+        <v>44882</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="17">
+        <v>44882</v>
+      </c>
+      <c r="B62" s="14">
+        <v>0.58472222222222225</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="17">
+        <v>44882</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="17">
+        <v>44882</v>
+      </c>
+      <c r="B63" s="14">
+        <v>0.62291666666666667</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="15">
+        <v>44886</v>
+      </c>
+      <c r="E63" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="17">
+        <v>44882</v>
+      </c>
+      <c r="B64" s="14">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" s="17">
+        <v>44882</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="17">
+        <v>44882</v>
+      </c>
+      <c r="B65" s="14">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65" s="17">
+        <v>44882</v>
+      </c>
+      <c r="E65" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1258,7 +1763,7 @@
   <dimension ref="A3:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1280,21 +1785,21 @@
         <v>21</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1302,10 +1807,10 @@
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
@@ -1316,10 +1821,10 @@
         <v>17</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -1327,13 +1832,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1440,7 +1945,7 @@
   <dimension ref="A3:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1584,7 +2089,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" s="11">
         <v>44844</v>
@@ -1599,7 +2104,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13" s="11">
         <v>44844</v>
@@ -1777,12 +2282,13 @@
   <dimension ref="A2:M42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -1796,39 +2302,39 @@
         <v>12</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B3" s="11">
         <v>44844</v>
@@ -1842,34 +2348,34 @@
       <c r="E3" s="4">
         <v>768.9</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="2">
         <v>98.4</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="2">
         <v>10195</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="2">
         <v>5.78</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="2">
         <v>8.1199999999999992</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="2">
         <v>5.28</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="2">
         <v>25.87</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="2">
         <v>99.68</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="2">
         <v>0.621</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="B4" s="11">
         <v>44844</v>
@@ -1883,34 +2389,34 @@
       <c r="E4" s="4">
         <v>768.6</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="2">
         <v>109.8</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="2">
         <v>10933</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="2">
         <v>6.23</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="2">
         <v>8.19</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="2">
         <v>4.3600000000000003</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="2">
         <v>27.84</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="2">
         <v>97.89</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="2">
         <v>0.22600000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="B5" s="11">
         <v>44844</v>
@@ -1924,34 +2430,34 @@
       <c r="E5" s="4">
         <v>767</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="2">
         <v>100</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="2">
         <v>11255</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="2">
         <v>6.42</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="2">
         <v>7.7</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="2">
         <v>4.88</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="2">
         <v>17.21</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="2">
         <v>65.069999999999993</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="2">
         <v>0.245</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B6" s="11">
         <v>44846</v>
@@ -1965,34 +2471,34 @@
       <c r="E6" s="4">
         <v>766.5</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="2">
         <v>125.4</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="2">
         <v>25688</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="2">
         <v>15.71</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="2">
         <v>8.23</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="2">
         <v>5.8</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="2">
         <v>20.149999999999999</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="2">
         <v>81.39</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="2">
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11">
         <v>44846</v>
@@ -2006,200 +2512,540 @@
       <c r="E7" s="4">
         <v>766.2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="2">
         <v>104</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="2">
         <v>25460</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="2">
         <v>15.56</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="2">
         <v>7.99</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="2">
         <v>1.24</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="2">
         <v>15.45</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="2">
         <v>60.13</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="2">
         <v>0.20899999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="11">
+        <v>44865</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.53125</v>
+      </c>
+      <c r="D8" s="4">
+        <v>18.866</v>
+      </c>
+      <c r="E8" s="4">
+        <v>764</v>
+      </c>
+      <c r="F8" s="2">
+        <v>109.9</v>
+      </c>
+      <c r="G8" s="2">
+        <v>8179</v>
+      </c>
+      <c r="H8" s="2">
+        <v>4.57</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="J8" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>31.43</v>
+      </c>
+      <c r="L8" s="2">
+        <v>120.94</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="11">
+        <v>44865</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.5708333333333333</v>
+      </c>
+      <c r="D9" s="4">
+        <v>18.295999999999999</v>
+      </c>
+      <c r="E9" s="4">
+        <v>763.2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>101.3</v>
+      </c>
+      <c r="G9" s="2">
+        <v>8405</v>
+      </c>
+      <c r="H9" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8.02</v>
+      </c>
+      <c r="J9" s="2">
+        <v>6.38</v>
+      </c>
+      <c r="K9" s="2">
+        <v>24.75</v>
+      </c>
+      <c r="L9" s="2">
+        <v>96.17</v>
+      </c>
+      <c r="M9" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44865</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="D10" s="4">
+        <v>17.061</v>
+      </c>
+      <c r="E10" s="4">
+        <v>764.7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>98.6</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8112</v>
+      </c>
+      <c r="H10" s="2">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I10" s="2">
+        <v>7.97</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7.45</v>
+      </c>
+      <c r="K10" s="2">
+        <v>25.46</v>
+      </c>
+      <c r="L10" s="2">
+        <v>94.81</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.16600000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="11">
+        <v>44869</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="D11" s="4">
+        <v>19.754000000000001</v>
+      </c>
+      <c r="E11" s="4">
+        <v>768.4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>107.4</v>
+      </c>
+      <c r="G11" s="2">
+        <v>35391</v>
+      </c>
+      <c r="H11" s="2">
+        <v>22.35</v>
+      </c>
+      <c r="I11" s="2">
+        <v>8.11</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.55</v>
+      </c>
+      <c r="K11" s="2">
+        <v>14.95</v>
+      </c>
+      <c r="L11" s="2">
+        <v>58.12</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.187</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="11">
+        <v>44869</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="D12" s="4">
+        <v>20.442</v>
+      </c>
+      <c r="E12" s="4">
+        <v>768.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>104.4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>35122</v>
+      </c>
+      <c r="H12" s="2">
+        <v>22.16</v>
+      </c>
+      <c r="I12" s="2">
+        <v>8.06</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="K12" s="2">
+        <v>21.67</v>
+      </c>
+      <c r="L12" s="2">
+        <v>84.99</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.217</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11">
+        <v>44872</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="D13" s="4">
+        <v>21.913</v>
+      </c>
+      <c r="E13" s="4">
+        <v>766.6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>115.1</v>
+      </c>
+      <c r="G13" s="2">
+        <v>35838</v>
+      </c>
+      <c r="H13" s="2">
+        <v>22.64</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K13" s="2">
+        <v>20.74</v>
+      </c>
+      <c r="L13" s="2">
+        <v>81.28</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.23400000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="11">
+        <v>44872</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D14" s="4">
+        <v>22.071999999999999</v>
+      </c>
+      <c r="E14" s="4">
+        <v>766.6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>96.6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>32924</v>
+      </c>
+      <c r="H14" s="2">
+        <v>20.62</v>
+      </c>
+      <c r="I14" s="2">
+        <v>7.8</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="K14" s="2">
+        <v>18.84</v>
+      </c>
+      <c r="L14" s="2">
+        <v>73.66</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.114</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11">
+        <v>44882</v>
+      </c>
+      <c r="C15" s="3">
+        <v>0.50208333333333333</v>
+      </c>
+      <c r="D15" s="4">
+        <v>13.015000000000001</v>
+      </c>
+      <c r="E15" s="4">
+        <v>764.7</v>
+      </c>
+      <c r="F15" s="19">
+        <v>104.4</v>
+      </c>
+      <c r="G15" s="20">
+        <v>10351</v>
+      </c>
+      <c r="H15" s="20">
+        <v>5.88</v>
+      </c>
+      <c r="I15" s="20">
+        <v>8.16</v>
+      </c>
+      <c r="J15" s="20">
+        <v>21.85</v>
+      </c>
+      <c r="K15" s="20">
+        <v>36.08</v>
+      </c>
+      <c r="L15" s="20">
+        <v>141.74</v>
+      </c>
+      <c r="M15" s="20">
+        <v>0.245</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="11">
+        <v>44882</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.59444444444444444</v>
+      </c>
+      <c r="D16" s="4">
+        <v>13.961</v>
+      </c>
+      <c r="E16" s="4">
+        <v>764.4</v>
+      </c>
+      <c r="F16" s="21">
+        <v>113.9</v>
+      </c>
+      <c r="G16" s="20">
+        <v>10609</v>
+      </c>
+      <c r="H16" s="20">
+        <v>6.04</v>
+      </c>
+      <c r="I16" s="20">
+        <v>8.36</v>
+      </c>
+      <c r="J16" s="20">
+        <v>5.22</v>
+      </c>
+      <c r="K16" s="20">
+        <v>21.35</v>
+      </c>
+      <c r="L16" s="20">
+        <v>86.05</v>
+      </c>
+      <c r="M16" s="20">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="11">
+        <v>44882</v>
+      </c>
+      <c r="C17" s="3">
+        <v>0.63402777777777775</v>
+      </c>
+      <c r="D17" s="4">
+        <v>14.106999999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>764.9</v>
+      </c>
+      <c r="F17" s="21">
+        <v>118.6</v>
+      </c>
+      <c r="G17" s="20">
+        <v>10706</v>
+      </c>
+      <c r="H17" s="20">
+        <v>6.1</v>
+      </c>
+      <c r="I17" s="20">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="J17" s="20">
+        <v>6.07</v>
+      </c>
+      <c r="K17" s="20">
+        <v>36.81</v>
+      </c>
+      <c r="L17" s="20">
+        <v>140.1</v>
+      </c>
+      <c r="M17" s="20">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
